--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3461877.400872987</v>
+        <v>3579239.290267616</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11143223.90601995</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7900862.59930949</v>
+        <v>7959077.939395726</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>24.93189863045335</v>
+        <v>285.9410925326691</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>126.517549413102</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>143.023227928772</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>56.94025372097947</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>31.53039609497068</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.35153719005479</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>312.9451489881565</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4371413535349</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.44749355031655</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>134.159953047044</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.275240877313</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>92.26024958059013</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>18.18624318344743</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>133.2658462320107</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>191.828123840699</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8053112726921</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2244489913895</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.589200104262297</v>
+        <v>97.55568174449512</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>186.3821020736954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>10.58364443467468</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>74.96337793488017</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>117.8112368377021</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>10.58364443467423</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>113.4877306469552</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>121.2172995552592</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>14.53306611597336</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>100.9025715636457</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>159.4718642460855</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>135.0949745400652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>7.069540131684027</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>174.2996212791701</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5930054288748</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>34.00490843294668</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.4905881546152</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>51.50556704456729</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>50.17139158339597</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>122.4770547252864</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.519018857857</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C2" t="n">
-        <v>650.5565019174448</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D2" t="n">
-        <v>650.5565019174448</v>
+        <v>895.9500008815637</v>
       </c>
       <c r="E2" t="n">
-        <v>650.5565019174448</v>
+        <v>510.1617482833195</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921978</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>2355.065163378706</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2482.860667836385</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.717708340416</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.755191400004</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.755191400004</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1257.755191400004</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>846.7692866103966</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>429.6815048468241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>111.4583896193336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>242.5828808341008</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>646.0499938541462</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>1198.863252100346</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1830.581063083657</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>2024.91527597564</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2232.849924657333</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4649,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>383.3713861261743</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>887.7329259922928</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1528.278275459397</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1726.935017112062</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2276.371025864785</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2405.574583200926</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>339.8239063167927</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>545.0935070360306</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>1053.877663279709</v>
+        <v>705.5516739134498</v>
       </c>
       <c r="R7" t="n">
-        <v>1053.877663279709</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S7" t="n">
-        <v>846.4373785321145</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T7" t="n">
-        <v>620.8081818444795</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>331.6560054221592</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>331.6560054221592</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>331.6560054221592</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.6664545241419</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.693365116358</v>
+        <v>878.6975589321853</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.730848175946</v>
+        <v>509.7350419917736</v>
       </c>
       <c r="D8" t="n">
-        <v>841.4651495691954</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="E8" t="n">
-        <v>841.4651495691954</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>834.519648819992</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>418.9265767457143</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>116.0111571237145</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>199.5143021373487</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>468.42649406655</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>838.9376088552594</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1282.872051350724</v>
+        <v>1543.762111616989</v>
       </c>
       <c r="N8" t="n">
-        <v>1738.603625623768</v>
+        <v>2171.069779676835</v>
       </c>
       <c r="O8" t="n">
-        <v>2155.602766936376</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2477.000885571628</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.18474111696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.576964538517</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.061860450593</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.293205180479</v>
+        <v>1642.302649169077</v>
       </c>
       <c r="X8" t="n">
-        <v>1955.293205180479</v>
+        <v>1268.836890907997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1955.293205180479</v>
+        <v>878.6975589321853</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3062050962127</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8531758150857</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9187661538344</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>448.681311148379</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>302.146753175264</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>165.5050957234327</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>72.31292442990731</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>246.6565409677914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>702.6555516296426</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1010.074949674014</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.175755327816</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1833.824967998518</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O9" t="n">
-        <v>2179.829273034831</v>
+        <v>2483.438099596678</v>
       </c>
       <c r="P9" t="n">
-        <v>2438.195165861565</v>
+        <v>2592.127727123976</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.986726597623</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.986726597623</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.374760706703</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.608979049431</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.522806046712</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.370697814969</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.133341086767</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.281840881235</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.521542116281</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.2607371034878</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>769.3245541755809</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>769.3245541755809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>621.4114605931878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>474.5215130952774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>306.5851434000597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>158.2916353233891</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>82.8833909048594</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>260.2782098866545</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>542.8089378877603</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>851.0870999282808</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>1157.469712732903</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>1424.447349606354</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
-        <v>1629.372157534689</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q10" t="n">
-        <v>1687.816392302165</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1687.816392302165</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1687.816392302165</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1465.051953754689</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>1175.936348712881</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="V10" t="n">
-        <v>1175.936348712881</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="W10" t="n">
-        <v>1175.936348712881</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="X10" t="n">
-        <v>947.9467978148639</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="Y10" t="n">
-        <v>938.2607371034878</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.121104285317</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5306,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2252.031751697595</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2585.956523868815</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3081.282130084574</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836013</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>584.5295404712656</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6164468888725</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5477693179085</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055728</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>612.4311299055728</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>465.5411824076624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>298.3450831225423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>3474.685803651587</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>250.2083589693833</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>108.4965278115813</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>734.6461798836013</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>734.6461798836013</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>586.7330863012082</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579752</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>397.4723325755821</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2261.070983590888</v>
+        <v>2203.85715631835</v>
       </c>
       <c r="T34" t="n">
-        <v>2041.469518613829</v>
+        <v>1984.25569134129</v>
       </c>
       <c r="U34" t="n">
-        <v>1752.394291958027</v>
+        <v>1695.180464685488</v>
       </c>
       <c r="V34" t="n">
-        <v>1497.70980375214</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="W34" t="n">
-        <v>1208.292633715179</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X34" t="n">
-        <v>980.3030828171618</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.5105036736317</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>3341.828433710799</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>3172.892250782892</v>
       </c>
       <c r="D37" t="n">
-        <v>2504.882831151424</v>
+        <v>3022.775611370556</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151424</v>
+        <v>2874.862517788163</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>2727.972570290253</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>2560.776471005133</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650331</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7605,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.185257670615</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>886.249074742708</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>736.1324353303722</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2193417479791</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>441.3293942500687</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7840,16 +7842,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1975.033022579363</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1685.615852542402</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>1457.626301644385</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>1236.833722500854</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,16 +8227,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>38.14709430781187</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>20.72114122105256</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>43.56824126217998</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>21.63976862165693</v>
       </c>
       <c r="R9" t="n">
-        <v>17.26494649393209</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-2.501110429875553e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>65.75554125013258</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.1260109543625</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>27.60981118522911</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.12774237125714</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>19.07741329096466</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.73277020259218</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>44.51847645928555</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.052274046183328</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.726664722474453</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0.7017074173491267</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.0213775686979</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>200.6320762792607</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>129.6605885985413</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.04708356698241</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725831.8306079261</v>
+        <v>748222.7364204483</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>686152.6608156777</v>
+        <v>725831.8306079261</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
@@ -26323,37 +26325,37 @@
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>196446.3877966352</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>315238.2384513057</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>475327.3220074725</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26420,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
+        <v>209922.4154630333</v>
+      </c>
+      <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
-      <c r="D4" t="n">
-        <v>121617.1617317167</v>
-      </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682705</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
@@ -26445,19 +26447,19 @@
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>87562.0451708468</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123285.7356165248</v>
+        <v>-123285.735616525</v>
       </c>
       <c r="C6" t="n">
-        <v>299188.228255701</v>
+        <v>466682.1435980195</v>
       </c>
       <c r="D6" t="n">
-        <v>227021.809172646</v>
+        <v>310878.3375042248</v>
       </c>
       <c r="E6" t="n">
-        <v>164483.2163151929</v>
+        <v>-131242.1530581411</v>
       </c>
       <c r="F6" t="n">
+        <v>639810.5383226655</v>
+      </c>
+      <c r="G6" t="n">
+        <v>639810.5383226657</v>
+      </c>
+      <c r="H6" t="n">
         <v>639810.5383226654</v>
       </c>
-      <c r="G6" t="n">
-        <v>639810.5383226653</v>
-      </c>
-      <c r="H6" t="n">
-        <v>639810.5383226657</v>
-      </c>
       <c r="I6" t="n">
-        <v>639810.5383226656</v>
+        <v>639810.5383226655</v>
       </c>
       <c r="J6" t="n">
         <v>463387.3191300725</v>
@@ -26549,19 +26551,19 @@
         <v>639810.5383226655</v>
       </c>
       <c r="L6" t="n">
+        <v>639810.5383226655</v>
+      </c>
+      <c r="M6" t="n">
+        <v>515602.027614607</v>
+      </c>
+      <c r="N6" t="n">
+        <v>639810.5383226655</v>
+      </c>
+      <c r="O6" t="n">
+        <v>639810.5383226657</v>
+      </c>
+      <c r="P6" t="n">
         <v>639810.5383226654</v>
-      </c>
-      <c r="M6" t="n">
-        <v>515602.0276146068</v>
-      </c>
-      <c r="N6" t="n">
-        <v>639810.5383226651</v>
-      </c>
-      <c r="O6" t="n">
-        <v>639810.5383226654</v>
-      </c>
-      <c r="P6" t="n">
-        <v>639810.5383226656</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>215.7324361209784</v>
       </c>
-      <c r="D3" t="n">
-        <v>368.0909448599692</v>
-      </c>
       <c r="E3" t="n">
-        <v>406.4084551436395</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>381.9441471112581</v>
+        <v>120.9349532090423</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>40.72927168552582</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>211.6598136919109</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>61.55578717291083</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>121.1817005742619</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.771212764859509</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>41.7378926325265</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>193.5923054230909</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.32764374521086</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.9954532478325</v>
+        <v>121.0289716075997</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.865596161600135</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58853668998739</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>149.0283960200894</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>328.0876422206098</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>491.7183277411436</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>610.0200662717139</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>678.7648620105701</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>689.7479871047167</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>651.3094652728053</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>555.8775600333018</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>417.4408974959969</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>242.8222548861147</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>88.08727253246316</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>16.9216471974046</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.068276285897659</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>19.97519465590634</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>71.21038966796765</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>195.4067520812345</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>333.9812632363776</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>449.0790242691386</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>524.0540396329286</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>537.9241906905494</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>492.0955424609223</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9500567342644</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.0136536173924</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>128.4145574700319</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>38.4173248718271</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>8.336604854122577</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.733973360193176</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>15.41659951153571</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>52.1453079592639</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>122.5919165656576</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>201.4561776660799</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>257.7945484781746</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>271.8082059073722</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>265.3452142921069</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>245.0892527662138</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>209.7161962182728</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.1966238249032</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>77.96574763195862</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>30.21842664991198</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>7.408795266279934</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178164</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>147.487348193741</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,22 +32548,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>558.375963895806</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33028,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>514.695376254093</v>
+        <v>424.0909547148526</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>210.034998668377</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>130.5086437738797</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0417376939235</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>271.628476696163</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>374.2536513017266</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>448.4186287832974</v>
+        <v>348.3826863804479</v>
       </c>
       <c r="N8" t="n">
-        <v>460.3349235081258</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>421.2112538511185</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>324.6445642780323</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.1352076215474</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
-        <v>27.23671707198255</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.6601607549767</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.6050612745972</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>310.5246444892645</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>381.9200057109103</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>450.1507198693961</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>349.4992980164779</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>260.9756493199341</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0318795313709</v>
+        <v>44.60637589638116</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.2327364489848</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>179.186685840197</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>285.3845737384908</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>311.3920828692127</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>309.4773866713355</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>269.6743806802535</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>206.9947554831663</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.0345805732088</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344831</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707428</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>416.2419299737876</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>372.0991318096486</v>
+        <v>281.4947102704082</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37628,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579239.290267616</v>
+        <v>3574933.573891545</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7959077.939395726</v>
+        <v>7959077.939395724</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>285.9410925326691</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>287.2841839626593</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>126.517549413102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>143.023227928772</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>402.8016908482799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.35153719005479</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.82466560786631</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>312.9451489881565</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>7.150945238862486</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.55568174449512</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>262.6919119500168</v>
       </c>
       <c r="X13" t="n">
-        <v>10.58364443467468</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.96337793488017</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>10.58364443467423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4877306469552</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>14.53306611597336</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>159.4718642460855</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>174.2996212791701</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5930054288748</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>34.00490843294668</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>51.50556704456729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.17139158339597</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.178216428726</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1254.215699488314</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>895.9500008815637</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>510.1617482833195</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2482.860667836385</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>2355.065163378706</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>2204.94852396637</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2204.94852396637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C5" t="n">
-        <v>1413.148854308789</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>460.8133766166067</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>705.5516739134498</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>557.4050153476338</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>878.6975589321853</v>
+        <v>1186.952328438143</v>
       </c>
       <c r="C8" t="n">
-        <v>509.7350419917736</v>
+        <v>817.9898114977311</v>
       </c>
       <c r="D8" t="n">
-        <v>193.6288308926256</v>
+        <v>459.7241128909807</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926256</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,16 +4810,16 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1543.762111616989</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2171.069779676835</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2689.92591400927</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2689.92591400927</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2689.92591400927</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2689.92591400927</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.302649169077</v>
+        <v>2337.157258739156</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.836890907997</v>
+        <v>1963.691500478076</v>
       </c>
       <c r="Y8" t="n">
-        <v>878.6975589321853</v>
+        <v>1573.552168502265</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2592.127727123976</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>557.2852021097942</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>302.6007139039074</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>302.6007139039074</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>302.6007139039074</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5521,22 +5521,22 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2252.031751697595</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2585.956523868815</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3081.282130084574</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M18" t="n">
-        <v>3678.660617711126</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N18" t="n">
-        <v>3678.660617711126</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3062.606292977538</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3474.685803651587</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>4102.283767206194</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>862.3241387471426</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>712.2074993348068</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>564.2944057524137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>417.4044582545033</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>250.2083589693833</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>108.4965278115813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4230.570347950413</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>336.9860575577204</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2203.85715631835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1984.25569134129</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.180464685488</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1440.495976479601</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3341.828433710799</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>3172.892250782892</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>3022.775611370556</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>2874.862517788163</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2727.972570290253</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2560.776471005133</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4623.787448650995</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4334.712221995193</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>4080.027733789307</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3790.610563752346</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3562.621012854329</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>3341.828433710799</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,13 +7262,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2345.568987476151</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7496,13 +7496,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
         <v>1896.176478190825</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949679</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>159.7974209002381</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.63976862165693</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>23.83108638657416</v>
       </c>
       <c r="X13" t="n">
-        <v>215.1260109543625</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>35.12774237125714</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>66.73277020259218</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>6.052274046183328</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>6.726664722474453</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7017074173491267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.0213775686979</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>200.6320762792607</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.6605885985413</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
@@ -26328,34 +26328,34 @@
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.604713255</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.691380806</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,34 +26426,34 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682705</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682797</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682709</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682663</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123285.735616525</v>
+        <v>-123285.7356165249</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980195</v>
+        <v>466682.1435980197</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.3375042248</v>
+        <v>310878.3375042244</v>
       </c>
       <c r="E6" t="n">
-        <v>-131242.1530581411</v>
+        <v>-131589.5323124976</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="G6" t="n">
-        <v>639810.5383226657</v>
+        <v>639463.1590683082</v>
       </c>
       <c r="H6" t="n">
-        <v>639810.5383226654</v>
+        <v>639463.1590683083</v>
       </c>
       <c r="I6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683088</v>
       </c>
       <c r="J6" t="n">
-        <v>463387.3191300725</v>
+        <v>463039.9398757158</v>
       </c>
       <c r="K6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683084</v>
       </c>
       <c r="L6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683088</v>
       </c>
       <c r="M6" t="n">
-        <v>515602.027614607</v>
+        <v>515254.6483602499</v>
       </c>
       <c r="N6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="O6" t="n">
-        <v>639810.5383226657</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="P6" t="n">
-        <v>639810.5383226654</v>
+        <v>639463.1590683088</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120.9349532090423</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>61.95678475475376</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>40.72927168552582</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>211.6598136919109</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.98247917251513</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.771212764859509</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7378926325265</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>147.5019418892777</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28061,16 +28061,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.0289716075997</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-4.580201380556581e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.165338479883826e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.436047097567689e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30276,13 +30276,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>147.487348193741</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539316</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>424.0909547148526</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,31 +33262,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>553.392502062293</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>484.1423712692491</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>537.6437863443698</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34216,16 +34216,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>302.5540177178169</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>348.3826863804479</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.60637589638116</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344831</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>20.64972152707428</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740574</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>281.4947102704082</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36910,31 +36910,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>414.8381222824188</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>350.1679638549188</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>395.0475418999253</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2123056344836</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3574933.573891545</v>
+        <v>3576694.10419433</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.160765271962464</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>287.2841839626593</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>402.8016908482799</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.82466560786631</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>74.84390282712744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.150945238862486</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>262.6919119500168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>34.45703212904686</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2245.125655651148</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1914.062768307577</v>
       </c>
       <c r="W2" t="n">
-        <v>2351.934357141989</v>
+        <v>1561.294113037463</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.812828570805</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>853.5471299640544</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>467.7588773658102</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>460.8133766166067</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>460.8133766166067</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>447.7659988934382</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>129.5428836659477</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2689.92591400927</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2689.92591400927</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2689.92591400927</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2689.92591400927</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.157258739156</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.691500478076</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1573.552168502265</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -5035,34 +5035,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5132,7 +5132,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.5738700011939</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1168.356000042741</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>940.366449144724</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>719.5738700011939</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,13 +6074,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6840,13 +6840,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6913,64 +6913,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,55 +7071,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7137,10 +7137,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2412.158000621627</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2123.082773965825</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1868.398285759938</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.981115722978</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.99156482496</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>23.83108638657416</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>45.44677382459309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.9484181982414</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.691380806</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682797</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26450,16 +26450,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682709</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682663</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-123285.7356165249</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980197</v>
+        <v>466682.1435980193</v>
       </c>
       <c r="D6" t="n">
         <v>310878.3375042244</v>
       </c>
       <c r="E6" t="n">
-        <v>-131589.5323124976</v>
+        <v>-131276.8909835765</v>
       </c>
       <c r="F6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="G6" t="n">
-        <v>639463.1590683082</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="H6" t="n">
-        <v>639463.1590683083</v>
+        <v>639775.8003972301</v>
       </c>
       <c r="I6" t="n">
-        <v>639463.1590683088</v>
+        <v>639775.8003972296</v>
       </c>
       <c r="J6" t="n">
-        <v>463039.9398757158</v>
+        <v>463352.5812046371</v>
       </c>
       <c r="K6" t="n">
-        <v>639463.1590683084</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="L6" t="n">
-        <v>639463.1590683088</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="M6" t="n">
-        <v>515254.6483602499</v>
+        <v>515567.2896891712</v>
       </c>
       <c r="N6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972301</v>
       </c>
       <c r="O6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="P6" t="n">
-        <v>639463.1590683088</v>
+        <v>639775.8003972298</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>249.0634022363268</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>61.95678475475376</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>10.98247917251513</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>48.19472341080779</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6983327287247</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>43.65213806676286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>147.5019418892777</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.580201380556581e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.165338479883826e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.436047097567689e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30276,13 +30276,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543365</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4567226539316</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1789913099997</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902408</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997754</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9023428740574</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>226.5827468655553</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
